--- a/examples/21024 Monitor for MannyCopyresultsresults.xlsx
+++ b/examples/21024 Monitor for MannyCopyresultsresults.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'MONCTRL'!$A:$A</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'MONCTRL'!$A$1:$CT$57</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'MONCTRL'!$A$1:$CW$57</definedName>
   </definedNames>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
@@ -53,7 +53,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -254,11 +254,94 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="00000000"/>
+      </left>
+      <top style="medium">
+        <color rgb="00000000"/>
+      </top>
+    </border>
+    <border>
+      <top style="medium">
+        <color rgb="00000000"/>
+      </top>
+    </border>
+    <border>
+      <right style="medium">
+        <color rgb="00000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="00000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="00000000"/>
+      </left>
+      <bottom style="medium">
+        <color rgb="00000000"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="medium">
+        <color rgb="00000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="medium">
+        <color rgb="00000000"/>
+      </right>
+      <bottom style="medium">
+        <color rgb="00000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="00000000"/>
+      </left>
+    </border>
+    <border/>
+    <border>
+      <right style="medium">
+        <color rgb="00000000"/>
+      </right>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="00000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="00000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="00000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="00000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="00000000"/>
+      </right>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="00000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="00000000"/>
+      </right>
+      <bottom style="medium">
+        <color rgb="00000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -438,6 +521,58 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -939,13 +1074,15 @@
     <col width="3.140625" customWidth="1" style="5" min="90" max="90"/>
     <col width="9.7109375" customWidth="1" style="5" min="91" max="91"/>
     <col width="6.42578125" customWidth="1" style="5" min="92" max="92"/>
-    <col width="2.5703125" customWidth="1" style="5" min="93" max="93"/>
-    <col width="3.28515625" customWidth="1" style="5" min="94" max="94"/>
-    <col width="10" customWidth="1" style="5" min="95" max="95"/>
-    <col width="2.5703125" customWidth="1" style="5" min="96" max="96"/>
-    <col width="3.28515625" customWidth="1" style="5" min="97" max="97"/>
-    <col width="10" customWidth="1" style="5" min="98" max="98"/>
-    <col width="9.140625" customWidth="1" style="5" min="99" max="16384"/>
+    <col width="2.43" customWidth="1" style="5" min="93" max="93"/>
+    <col width="11" customWidth="1" style="5" min="94" max="94"/>
+    <col width="6" customWidth="1" style="5" min="95" max="95"/>
+    <col width="1.86" customWidth="1" style="5" min="96" max="96"/>
+    <col width="2.57" customWidth="1" style="5" min="97" max="97"/>
+    <col width="9.289999999999999" customWidth="1" style="5" min="98" max="98"/>
+    <col width="1.86" customWidth="1" style="5" min="99" max="16384"/>
+    <col width="2.57" customWidth="1" min="100" max="100"/>
+    <col width="9.289999999999999" customWidth="1" min="101" max="101"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -1103,6 +1240,13 @@
         <v>44774</v>
       </c>
       <c r="CN1" s="63" t="n"/>
+      <c r="CO1" s="65" t="n"/>
+      <c r="CP1" s="66" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="CQ1" s="67" t="n"/>
       <c r="CR1" s="15" t="n"/>
       <c r="CS1" s="62" t="inlineStr">
         <is>
@@ -1454,6 +1598,17 @@
           <t>Delta</t>
         </is>
       </c>
+      <c r="CO2" s="68" t="n"/>
+      <c r="CP2" s="69" t="inlineStr">
+        <is>
+          <t>Location</t>
+        </is>
+      </c>
+      <c r="CQ2" s="70" t="inlineStr">
+        <is>
+          <t>Delta</t>
+        </is>
+      </c>
       <c r="CR2" s="6" t="n"/>
       <c r="CS2" s="8" t="inlineStr">
         <is>
@@ -1836,31 +1991,29 @@
         <f>CM3-CI3</f>
         <v/>
       </c>
-      <c r="CO3" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="CP3" t="inlineStr">
+      <c r="CO3" s="71" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="CP3" s="72" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="CQ3" t="inlineStr">
+      <c r="CQ3" s="73" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="CR3" s="14" t="n"/>
-      <c r="CS3" s="10" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="CT3" s="17" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="CR3" s="20" t="n"/>
+      <c r="CS3" s="74" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="CT3" s="17" t="n">
+        <v>0</v>
       </c>
       <c r="CU3" s="14" t="n"/>
       <c r="CV3" s="10" t="inlineStr">
@@ -1868,10 +2021,8 @@
           <t>N</t>
         </is>
       </c>
-      <c r="CW3" s="17" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="CW3" s="17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4" hidden="1" ht="12.75" customHeight="1">
@@ -2240,31 +2391,29 @@
         <f>CM4-CI4</f>
         <v/>
       </c>
-      <c r="CO4" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="CP4" t="inlineStr">
+      <c r="CO4" s="75" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="CP4" s="76" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="CQ4" t="inlineStr">
+      <c r="CQ4" s="77" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="CR4" s="14" t="n"/>
-      <c r="CS4" s="10" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="CT4" s="17" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="CR4" s="20" t="n"/>
+      <c r="CS4" s="74" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="CT4" s="17" t="n">
+        <v>0</v>
       </c>
       <c r="CU4" s="14" t="n"/>
       <c r="CV4" s="10" t="inlineStr">
@@ -2272,10 +2421,8 @@
           <t>E</t>
         </is>
       </c>
-      <c r="CW4" s="17" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="CW4" s="17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" hidden="1" ht="12.75" customHeight="1">
@@ -2644,31 +2791,29 @@
         <f>CM5-CI5</f>
         <v/>
       </c>
-      <c r="CO5" t="inlineStr">
-        <is>
-          <t>EL</t>
-        </is>
-      </c>
-      <c r="CP5" t="inlineStr">
+      <c r="CO5" s="78" t="inlineStr">
+        <is>
+          <t>EL</t>
+        </is>
+      </c>
+      <c r="CP5" s="79" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="CQ5" t="inlineStr">
+      <c r="CQ5" s="80" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="CR5" s="14" t="n"/>
-      <c r="CS5" s="11" t="inlineStr">
-        <is>
-          <t>EL</t>
-        </is>
-      </c>
-      <c r="CT5" s="24" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="CR5" s="20" t="n"/>
+      <c r="CS5" s="81" t="inlineStr">
+        <is>
+          <t>EL</t>
+        </is>
+      </c>
+      <c r="CT5" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="CU5" s="14" t="n"/>
       <c r="CV5" s="11" t="inlineStr">
@@ -2676,10 +2821,8 @@
           <t>EL</t>
         </is>
       </c>
-      <c r="CW5" s="24" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="CW5" s="24" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -3053,29 +3196,25 @@
         <f>CM6-CJ6</f>
         <v/>
       </c>
-      <c r="CO6" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="CP6" t="inlineStr">
-        <is>
-          <t>9991.359</t>
-        </is>
-      </c>
-      <c r="CQ6" t="n">
+      <c r="CO6" s="71" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="CP6" s="72" t="n">
+        <v>9991.359</v>
+      </c>
+      <c r="CQ6" s="73" t="n">
         <v>0.001000000000203727</v>
       </c>
-      <c r="CR6" s="14" t="n"/>
-      <c r="CS6" s="10" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="CT6" s="17" t="inlineStr">
-        <is>
-          <t>0.006999999999607098</t>
-        </is>
+      <c r="CR6" s="20" t="n"/>
+      <c r="CS6" s="74" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="CT6" s="17" t="n">
+        <v>0.007</v>
       </c>
       <c r="CU6" s="14" t="n"/>
       <c r="CV6" s="10" t="inlineStr">
@@ -3083,10 +3222,8 @@
           <t>N</t>
         </is>
       </c>
-      <c r="CW6" s="13" t="inlineStr">
-        <is>
-          <t>0.08399999999528518</t>
-        </is>
+      <c r="CW6" s="13" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="7">
@@ -3458,29 +3595,25 @@
         <f>CM7-CJ7</f>
         <v/>
       </c>
-      <c r="CO7" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="CP7" t="inlineStr">
-        <is>
-          <t>9990.688</t>
-        </is>
-      </c>
-      <c r="CQ7" t="n">
+      <c r="CO7" s="75" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="CP7" s="76" t="n">
+        <v>9990.688</v>
+      </c>
+      <c r="CQ7" s="77" t="n">
         <v>0.002000000000407454</v>
       </c>
-      <c r="CR7" s="14" t="n"/>
-      <c r="CS7" s="10" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="CT7" s="17" t="inlineStr">
-        <is>
-          <t>0.0059999999994033715</t>
-        </is>
+      <c r="CR7" s="20" t="n"/>
+      <c r="CS7" s="74" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="CT7" s="17" t="n">
+        <v>0.006</v>
       </c>
       <c r="CU7" s="14" t="n"/>
       <c r="CV7" s="10" t="inlineStr">
@@ -3488,10 +3621,8 @@
           <t>E</t>
         </is>
       </c>
-      <c r="CW7" s="13" t="inlineStr">
-        <is>
-          <t>0.07199999999284046</t>
-        </is>
+      <c r="CW7" s="13" t="n">
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -3863,29 +3994,25 @@
         <f>CM8-CJ8</f>
         <v/>
       </c>
-      <c r="CO8" t="inlineStr">
-        <is>
-          <t>EL</t>
-        </is>
-      </c>
-      <c r="CP8" t="inlineStr">
-        <is>
-          <t>56.776</t>
-        </is>
-      </c>
-      <c r="CQ8" t="n">
+      <c r="CO8" s="78" t="inlineStr">
+        <is>
+          <t>EL</t>
+        </is>
+      </c>
+      <c r="CP8" s="79" t="n">
+        <v>56.776</v>
+      </c>
+      <c r="CQ8" s="80" t="n">
         <v>-0.003999999999997783</v>
       </c>
-      <c r="CR8" s="14" t="n"/>
-      <c r="CS8" s="11" t="inlineStr">
-        <is>
-          <t>EL</t>
-        </is>
-      </c>
-      <c r="CT8" s="24" t="inlineStr">
-        <is>
-          <t>0.0030000000000001137</t>
-        </is>
+      <c r="CR8" s="20" t="n"/>
+      <c r="CS8" s="81" t="inlineStr">
+        <is>
+          <t>EL</t>
+        </is>
+      </c>
+      <c r="CT8" s="24" t="n">
+        <v>0.003</v>
       </c>
       <c r="CU8" s="14" t="n"/>
       <c r="CV8" s="11" t="inlineStr">
@@ -3893,10 +4020,8 @@
           <t>EL</t>
         </is>
       </c>
-      <c r="CW8" s="29" t="inlineStr">
-        <is>
-          <t>0.036000000000001364</t>
-        </is>
+      <c r="CW8" s="29" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="9">
@@ -4267,29 +4392,25 @@
         <f>CM9-CJ9</f>
         <v/>
       </c>
-      <c r="CO9" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="CP9" t="inlineStr">
-        <is>
-          <t>9988.612</t>
-        </is>
-      </c>
-      <c r="CQ9" t="n">
+      <c r="CO9" s="71" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="CP9" s="72" t="n">
+        <v>9988.611999999999</v>
+      </c>
+      <c r="CQ9" s="73" t="n">
         <v>0.0009999999983847374</v>
       </c>
-      <c r="CR9" s="14" t="n"/>
-      <c r="CS9" s="10" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="CT9" s="17" t="inlineStr">
-        <is>
-          <t>0.006000000001222361</t>
-        </is>
+      <c r="CR9" s="20" t="n"/>
+      <c r="CS9" s="74" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="CT9" s="17" t="n">
+        <v>0.006</v>
       </c>
       <c r="CU9" s="14" t="n"/>
       <c r="CV9" s="10" t="inlineStr">
@@ -4297,10 +4418,8 @@
           <t>N</t>
         </is>
       </c>
-      <c r="CW9" s="13" t="inlineStr">
-        <is>
-          <t>0.07200000001466833</t>
-        </is>
+      <c r="CW9" s="13" t="n">
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="10">
@@ -4669,29 +4788,25 @@
         <f>CM10-CJ10</f>
         <v/>
       </c>
-      <c r="CO10" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="CP10" t="inlineStr">
-        <is>
-          <t>9956.891</t>
-        </is>
-      </c>
-      <c r="CQ10" t="n">
+      <c r="CO10" s="75" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="CP10" s="76" t="n">
+        <v>9956.891</v>
+      </c>
+      <c r="CQ10" s="77" t="n">
         <v>0.004999999999199645</v>
       </c>
-      <c r="CR10" s="14" t="n"/>
-      <c r="CS10" s="10" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="CT10" s="17" t="inlineStr">
-        <is>
-          <t>0.0010000000002037268</t>
-        </is>
+      <c r="CR10" s="20" t="n"/>
+      <c r="CS10" s="74" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="CT10" s="17" t="n">
+        <v>0.001</v>
       </c>
       <c r="CU10" s="14" t="n"/>
       <c r="CV10" s="10" t="inlineStr">
@@ -4699,10 +4814,8 @@
           <t>E</t>
         </is>
       </c>
-      <c r="CW10" s="13" t="inlineStr">
-        <is>
-          <t>0.012000000002444722</t>
-        </is>
+      <c r="CW10" s="13" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="11">
@@ -5071,29 +5184,25 @@
         <f>CM11-CJ11</f>
         <v/>
       </c>
-      <c r="CO11" t="inlineStr">
-        <is>
-          <t>EL</t>
-        </is>
-      </c>
-      <c r="CP11" t="inlineStr">
-        <is>
-          <t>61.232</t>
-        </is>
-      </c>
-      <c r="CQ11" t="n">
+      <c r="CO11" s="78" t="inlineStr">
+        <is>
+          <t>EL</t>
+        </is>
+      </c>
+      <c r="CP11" s="79" t="n">
+        <v>61.232</v>
+      </c>
+      <c r="CQ11" s="80" t="n">
         <v>-0.006000000000000227</v>
       </c>
-      <c r="CR11" s="14" t="n"/>
-      <c r="CS11" s="11" t="inlineStr">
-        <is>
-          <t>EL</t>
-        </is>
-      </c>
-      <c r="CT11" s="24" t="inlineStr">
-        <is>
-          <t>0.0030000000000001137</t>
-        </is>
+      <c r="CR11" s="20" t="n"/>
+      <c r="CS11" s="81" t="inlineStr">
+        <is>
+          <t>EL</t>
+        </is>
+      </c>
+      <c r="CT11" s="24" t="n">
+        <v>0.003</v>
       </c>
       <c r="CU11" s="14" t="n"/>
       <c r="CV11" s="11" t="inlineStr">
@@ -5101,10 +5210,8 @@
           <t>EL</t>
         </is>
       </c>
-      <c r="CW11" s="29" t="inlineStr">
-        <is>
-          <t>0.036000000000001364</t>
-        </is>
+      <c r="CW11" s="29" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="12">
@@ -5484,29 +5591,25 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="CO12" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="CP12" t="inlineStr">
-        <is>
-          <t>9983.5</t>
-        </is>
-      </c>
-      <c r="CQ12" t="n">
+      <c r="CO12" s="71" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="CP12" s="72" t="n">
+        <v>9983.5</v>
+      </c>
+      <c r="CQ12" s="73" t="n">
         <v>-0.005999999999403371</v>
       </c>
-      <c r="CR12" s="14" t="n"/>
-      <c r="CS12" s="10" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="CT12" s="17" t="inlineStr">
-        <is>
-          <t>0.006999999999607098</t>
-        </is>
+      <c r="CR12" s="20" t="n"/>
+      <c r="CS12" s="74" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="CT12" s="17" t="n">
+        <v>0.007</v>
       </c>
       <c r="CU12" s="14" t="n"/>
       <c r="CV12" s="10" t="inlineStr">
@@ -5514,10 +5617,8 @@
           <t>N</t>
         </is>
       </c>
-      <c r="CW12" s="13" t="inlineStr">
-        <is>
-          <t>0.08399999999528518</t>
-        </is>
+      <c r="CW12" s="13" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="13">
@@ -5895,29 +5996,25 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="CO13" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="CP13" t="inlineStr">
-        <is>
-          <t>9927.808</t>
-        </is>
-      </c>
-      <c r="CQ13" t="n">
+      <c r="CO13" s="75" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="CP13" s="76" t="n">
+        <v>9927.808000000001</v>
+      </c>
+      <c r="CQ13" s="77" t="n">
         <v>0.01100000000042201</v>
       </c>
-      <c r="CR13" s="14" t="n"/>
-      <c r="CS13" s="10" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="CT13" s="17" t="inlineStr">
-        <is>
-          <t>-0.002999999998792191</t>
-        </is>
+      <c r="CR13" s="20" t="n"/>
+      <c r="CS13" s="74" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="CT13" s="17" t="n">
+        <v>-0.003</v>
       </c>
       <c r="CU13" s="14" t="n"/>
       <c r="CV13" s="10" t="inlineStr">
@@ -5925,10 +6022,8 @@
           <t>E</t>
         </is>
       </c>
-      <c r="CW13" s="13" t="inlineStr">
-        <is>
-          <t>-0.03599999998550629</t>
-        </is>
+      <c r="CW13" s="13" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="14">
@@ -6306,29 +6401,25 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="CO14" t="inlineStr">
-        <is>
-          <t>EL</t>
-        </is>
-      </c>
-      <c r="CP14" t="inlineStr">
-        <is>
-          <t>60.097</t>
-        </is>
-      </c>
-      <c r="CQ14" t="n">
+      <c r="CO14" s="78" t="inlineStr">
+        <is>
+          <t>EL</t>
+        </is>
+      </c>
+      <c r="CP14" s="79" t="n">
+        <v>60.097</v>
+      </c>
+      <c r="CQ14" s="80" t="n">
         <v>-0.006000000000000227</v>
       </c>
-      <c r="CR14" s="14" t="n"/>
-      <c r="CS14" s="11" t="inlineStr">
-        <is>
-          <t>EL</t>
-        </is>
-      </c>
-      <c r="CT14" s="24" t="inlineStr">
-        <is>
-          <t>0.0020000000000024443</t>
-        </is>
+      <c r="CR14" s="20" t="n"/>
+      <c r="CS14" s="81" t="inlineStr">
+        <is>
+          <t>EL</t>
+        </is>
+      </c>
+      <c r="CT14" s="24" t="n">
+        <v>0.002</v>
       </c>
       <c r="CU14" s="14" t="n"/>
       <c r="CV14" s="11" t="inlineStr">
@@ -6336,10 +6427,8 @@
           <t>EL</t>
         </is>
       </c>
-      <c r="CW14" s="29" t="inlineStr">
-        <is>
-          <t>0.02400000000002933</t>
-        </is>
+      <c r="CW14" s="29" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="15">
@@ -6710,29 +6799,25 @@
         <f>CM15-CJ15</f>
         <v/>
       </c>
-      <c r="CO15" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="CP15" t="inlineStr">
-        <is>
-          <t>10077.114</t>
-        </is>
-      </c>
-      <c r="CQ15" t="n">
+      <c r="CO15" s="71" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="CP15" s="72" t="n">
+        <v>10077.114</v>
+      </c>
+      <c r="CQ15" s="73" t="n">
         <v>-0.004000000000814907</v>
       </c>
-      <c r="CR15" s="14" t="n"/>
-      <c r="CS15" s="10" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="CT15" s="17" t="inlineStr">
-        <is>
-          <t>-0.0020000000004074536</t>
-        </is>
+      <c r="CR15" s="20" t="n"/>
+      <c r="CS15" s="74" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="CT15" s="17" t="n">
+        <v>-0.002</v>
       </c>
       <c r="CU15" s="14" t="n"/>
       <c r="CV15" s="10" t="inlineStr">
@@ -6740,10 +6825,8 @@
           <t>N</t>
         </is>
       </c>
-      <c r="CW15" s="13" t="inlineStr">
-        <is>
-          <t>-0.024000000004889444</t>
-        </is>
+      <c r="CW15" s="13" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="16">
@@ -7112,29 +7195,25 @@
         <f>CM16-CJ16</f>
         <v/>
       </c>
-      <c r="CO16" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="CP16" t="inlineStr">
-        <is>
-          <t>9993.547</t>
-        </is>
-      </c>
-      <c r="CQ16" t="n">
+      <c r="CO16" s="75" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="CP16" s="76" t="n">
+        <v>9993.547</v>
+      </c>
+      <c r="CQ16" s="77" t="n">
         <v>-0.002999999998792191</v>
       </c>
-      <c r="CR16" s="14" t="n"/>
-      <c r="CS16" s="10" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="CT16" s="17" t="inlineStr">
-        <is>
-          <t>0.006999999999607098</t>
-        </is>
+      <c r="CR16" s="20" t="n"/>
+      <c r="CS16" s="74" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="CT16" s="17" t="n">
+        <v>0.007</v>
       </c>
       <c r="CU16" s="14" t="n"/>
       <c r="CV16" s="10" t="inlineStr">
@@ -7142,10 +7221,8 @@
           <t>E</t>
         </is>
       </c>
-      <c r="CW16" s="13" t="inlineStr">
-        <is>
-          <t>0.08399999999528518</t>
-        </is>
+      <c r="CW16" s="13" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="17">
@@ -7514,29 +7591,25 @@
         <f>CM17-CJ17</f>
         <v/>
       </c>
-      <c r="CO17" t="inlineStr">
-        <is>
-          <t>EL</t>
-        </is>
-      </c>
-      <c r="CP17" t="inlineStr">
-        <is>
-          <t>57.091</t>
-        </is>
-      </c>
-      <c r="CQ17" t="n">
+      <c r="CO17" s="78" t="inlineStr">
+        <is>
+          <t>EL</t>
+        </is>
+      </c>
+      <c r="CP17" s="79" t="n">
+        <v>57.091</v>
+      </c>
+      <c r="CQ17" s="80" t="n">
         <v>-0.003999999999997783</v>
       </c>
-      <c r="CR17" s="14" t="n"/>
-      <c r="CS17" s="11" t="inlineStr">
-        <is>
-          <t>EL</t>
-        </is>
-      </c>
-      <c r="CT17" s="24" t="inlineStr">
-        <is>
-          <t>0.003999999999997783</t>
-        </is>
+      <c r="CR17" s="20" t="n"/>
+      <c r="CS17" s="81" t="inlineStr">
+        <is>
+          <t>EL</t>
+        </is>
+      </c>
+      <c r="CT17" s="24" t="n">
+        <v>0.004</v>
       </c>
       <c r="CU17" s="14" t="n"/>
       <c r="CV17" s="11" t="inlineStr">
@@ -7544,10 +7617,8 @@
           <t>EL</t>
         </is>
       </c>
-      <c r="CW17" s="29" t="inlineStr">
-        <is>
-          <t>0.0479999999999734</t>
-        </is>
+      <c r="CW17" s="29" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="18">
@@ -7948,31 +8019,29 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="CO18" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="CP18" t="inlineStr">
+      <c r="CO18" s="71" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="CP18" s="72" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="CQ18" t="inlineStr">
+      <c r="CQ18" s="73" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="CR18" s="14" t="n"/>
-      <c r="CS18" s="10" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="CT18" s="17" t="inlineStr">
-        <is>
-          <t>0.009000000000014552</t>
-        </is>
+      <c r="CR18" s="20" t="n"/>
+      <c r="CS18" s="74" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="CT18" s="17" t="n">
+        <v>0.008999999999999999</v>
       </c>
       <c r="CU18" s="14" t="n"/>
       <c r="CV18" s="10" t="inlineStr">
@@ -7980,10 +8049,8 @@
           <t>N</t>
         </is>
       </c>
-      <c r="CW18" s="13" t="inlineStr">
-        <is>
-          <t>0.10800000000017462</t>
-        </is>
+      <c r="CW18" s="13" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="19">
@@ -8382,31 +8449,29 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="CO19" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="CP19" t="inlineStr">
+      <c r="CO19" s="75" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="CP19" s="76" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="CQ19" t="inlineStr">
+      <c r="CQ19" s="77" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="CR19" s="5" t="n"/>
-      <c r="CS19" s="10" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="CT19" s="17" t="inlineStr">
-        <is>
-          <t>0.007999999999810825</t>
-        </is>
+      <c r="CR19" s="20" t="n"/>
+      <c r="CS19" s="74" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="CT19" s="17" t="n">
+        <v>0.008</v>
       </c>
       <c r="CU19" s="5" t="n"/>
       <c r="CV19" s="10" t="inlineStr">
@@ -8414,10 +8479,8 @@
           <t>E</t>
         </is>
       </c>
-      <c r="CW19" s="13" t="inlineStr">
-        <is>
-          <t>0.0959999999977299</t>
-        </is>
+      <c r="CW19" s="13" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="20">
@@ -8816,31 +8879,29 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="CO20" t="inlineStr">
-        <is>
-          <t>EL</t>
-        </is>
-      </c>
-      <c r="CP20" t="inlineStr">
+      <c r="CO20" s="78" t="inlineStr">
+        <is>
+          <t>EL</t>
+        </is>
+      </c>
+      <c r="CP20" s="79" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="CQ20" t="inlineStr">
+      <c r="CQ20" s="80" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="CR20" s="5" t="n"/>
-      <c r="CS20" s="11" t="inlineStr">
-        <is>
-          <t>EL</t>
-        </is>
-      </c>
-      <c r="CT20" s="24" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="CR20" s="20" t="n"/>
+      <c r="CS20" s="81" t="inlineStr">
+        <is>
+          <t>EL</t>
+        </is>
+      </c>
+      <c r="CT20" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="CU20" s="5" t="n"/>
       <c r="CV20" s="11" t="inlineStr">
@@ -8848,10 +8909,8 @@
           <t>EL</t>
         </is>
       </c>
-      <c r="CW20" s="29" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="CW20" s="29" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -9252,31 +9311,29 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="CO21" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="CP21" t="inlineStr">
+      <c r="CO21" s="71" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="CP21" s="72" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="CQ21" t="inlineStr">
+      <c r="CQ21" s="73" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="CR21" s="5" t="n"/>
-      <c r="CS21" s="10" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="CT21" s="17" t="inlineStr">
-        <is>
-          <t>0.011000000000422006</t>
-        </is>
+      <c r="CR21" s="20" t="n"/>
+      <c r="CS21" s="74" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="CT21" s="17" t="n">
+        <v>0.011</v>
       </c>
       <c r="CU21" s="5" t="n"/>
       <c r="CV21" s="10" t="inlineStr">
@@ -9284,10 +9341,8 @@
           <t>N</t>
         </is>
       </c>
-      <c r="CW21" s="13" t="inlineStr">
-        <is>
-          <t>0.13200000000506407</t>
-        </is>
+      <c r="CW21" s="13" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="22">
@@ -9686,31 +9741,29 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="CO22" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="CP22" t="inlineStr">
+      <c r="CO22" s="75" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="CP22" s="76" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="CQ22" t="inlineStr">
+      <c r="CQ22" s="77" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="CR22" s="5" t="n"/>
-      <c r="CS22" s="10" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="CT22" s="17" t="inlineStr">
-        <is>
-          <t>0.010000000000218279</t>
-        </is>
+      <c r="CR22" s="20" t="n"/>
+      <c r="CS22" s="74" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="CT22" s="17" t="n">
+        <v>0.01</v>
       </c>
       <c r="CU22" s="5" t="n"/>
       <c r="CV22" s="10" t="inlineStr">
@@ -9718,10 +9771,8 @@
           <t>E</t>
         </is>
       </c>
-      <c r="CW22" s="13" t="inlineStr">
-        <is>
-          <t>0.12000000000261934</t>
-        </is>
+      <c r="CW22" s="13" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="23">
@@ -10120,31 +10171,29 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="CO23" t="inlineStr">
-        <is>
-          <t>EL</t>
-        </is>
-      </c>
-      <c r="CP23" t="inlineStr">
+      <c r="CO23" s="78" t="inlineStr">
+        <is>
+          <t>EL</t>
+        </is>
+      </c>
+      <c r="CP23" s="79" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="CQ23" t="inlineStr">
+      <c r="CQ23" s="80" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="CR23" s="5" t="n"/>
-      <c r="CS23" s="11" t="inlineStr">
-        <is>
-          <t>EL</t>
-        </is>
-      </c>
-      <c r="CT23" s="24" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="CR23" s="20" t="n"/>
+      <c r="CS23" s="81" t="inlineStr">
+        <is>
+          <t>EL</t>
+        </is>
+      </c>
+      <c r="CT23" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="CU23" s="5" t="n"/>
       <c r="CV23" s="11" t="inlineStr">
@@ -10152,10 +10201,8 @@
           <t>EL</t>
         </is>
       </c>
-      <c r="CW23" s="29" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="CW23" s="29" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -10425,29 +10472,25 @@
         <f>CM24-CJ24</f>
         <v/>
       </c>
-      <c r="CO24" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="CP24" t="inlineStr">
-        <is>
-          <t>10083.841</t>
-        </is>
-      </c>
-      <c r="CQ24" t="n">
+      <c r="CO24" s="71" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="CP24" s="72" t="n">
+        <v>10083.841</v>
+      </c>
+      <c r="CQ24" s="73" t="n">
         <v>-0.007999999999810825</v>
       </c>
-      <c r="CR24" s="5" t="n"/>
-      <c r="CS24" s="10" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="CT24" s="17" t="inlineStr">
-        <is>
-          <t>-0.003999999998995918</t>
-        </is>
+      <c r="CR24" s="20" t="n"/>
+      <c r="CS24" s="74" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="CT24" s="17" t="n">
+        <v>-0.004</v>
       </c>
       <c r="CU24" s="5" t="n"/>
       <c r="CV24" s="10" t="inlineStr">
@@ -10455,10 +10498,8 @@
           <t>N</t>
         </is>
       </c>
-      <c r="CW24" s="13" t="inlineStr">
-        <is>
-          <t>-0.047999999987951014</t>
-        </is>
+      <c r="CW24" s="13" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="25">
@@ -10726,29 +10767,25 @@
         <f>CM25-CJ25</f>
         <v/>
       </c>
-      <c r="CO25" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="CP25" t="inlineStr">
-        <is>
-          <t>9905.954</t>
-        </is>
-      </c>
-      <c r="CQ25" t="n">
+      <c r="CO25" s="75" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="CP25" s="76" t="n">
+        <v>9905.954</v>
+      </c>
+      <c r="CQ25" s="77" t="n">
         <v>0.009000000000014552</v>
       </c>
-      <c r="CR25" s="5" t="n"/>
-      <c r="CS25" s="10" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="CT25" s="17" t="inlineStr">
-        <is>
-          <t>-0.0059999999994033715</t>
-        </is>
+      <c r="CR25" s="20" t="n"/>
+      <c r="CS25" s="74" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="CT25" s="17" t="n">
+        <v>-0.006</v>
       </c>
       <c r="CU25" s="5" t="n"/>
       <c r="CV25" s="10" t="inlineStr">
@@ -10756,10 +10793,8 @@
           <t>E</t>
         </is>
       </c>
-      <c r="CW25" s="13" t="inlineStr">
-        <is>
-          <t>-0.07199999999284046</t>
-        </is>
+      <c r="CW25" s="13" t="n">
+        <v>-0.07000000000000001</v>
       </c>
     </row>
     <row r="26">
@@ -11027,29 +11062,25 @@
         <f>CM26-CJ26</f>
         <v/>
       </c>
-      <c r="CO26" t="inlineStr">
-        <is>
-          <t>EL</t>
-        </is>
-      </c>
-      <c r="CP26" t="inlineStr">
-        <is>
-          <t>56.939</t>
-        </is>
-      </c>
-      <c r="CQ26" t="n">
+      <c r="CO26" s="78" t="inlineStr">
+        <is>
+          <t>EL</t>
+        </is>
+      </c>
+      <c r="CP26" s="79" t="n">
+        <v>56.939</v>
+      </c>
+      <c r="CQ26" s="80" t="n">
         <v>-0.009000000000000341</v>
       </c>
-      <c r="CR26" s="5" t="n"/>
-      <c r="CS26" s="11" t="inlineStr">
-        <is>
-          <t>EL</t>
-        </is>
-      </c>
-      <c r="CT26" s="24" t="inlineStr">
-        <is>
-          <t>-0.0009999999999976694</t>
-        </is>
+      <c r="CR26" s="20" t="n"/>
+      <c r="CS26" s="81" t="inlineStr">
+        <is>
+          <t>EL</t>
+        </is>
+      </c>
+      <c r="CT26" s="24" t="n">
+        <v>-0.001</v>
       </c>
       <c r="CU26" s="5" t="n"/>
       <c r="CV26" s="11" t="inlineStr">
@@ -11057,10 +11088,8 @@
           <t>EL</t>
         </is>
       </c>
-      <c r="CW26" s="29" t="inlineStr">
-        <is>
-          <t>-0.011999999999972033</t>
-        </is>
+      <c r="CW26" s="29" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="27">
@@ -11282,8 +11311,11 @@
       </c>
       <c r="CM27" s="17" t="n"/>
       <c r="CN27" s="16" t="n"/>
-      <c r="CR27" s="5" t="n"/>
-      <c r="CS27" s="10" t="inlineStr">
+      <c r="CO27" s="71" t="n"/>
+      <c r="CP27" s="72" t="n"/>
+      <c r="CQ27" s="73" t="n"/>
+      <c r="CR27" s="20" t="n"/>
+      <c r="CS27" s="74" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -11516,8 +11548,11 @@
       </c>
       <c r="CM28" s="18" t="n"/>
       <c r="CN28" s="13" t="n"/>
-      <c r="CR28" s="5" t="n"/>
-      <c r="CS28" s="10" t="inlineStr">
+      <c r="CO28" s="75" t="n"/>
+      <c r="CP28" s="76" t="n"/>
+      <c r="CQ28" s="77" t="n"/>
+      <c r="CR28" s="20" t="n"/>
+      <c r="CS28" s="74" t="inlineStr">
         <is>
           <t>E</t>
         </is>
@@ -11750,8 +11785,11 @@
       </c>
       <c r="CM29" s="21" t="n"/>
       <c r="CN29" s="13" t="n"/>
-      <c r="CR29" s="5" t="n"/>
-      <c r="CS29" s="11" t="inlineStr">
+      <c r="CO29" s="78" t="n"/>
+      <c r="CP29" s="79" t="n"/>
+      <c r="CQ29" s="80" t="n"/>
+      <c r="CR29" s="20" t="n"/>
+      <c r="CS29" s="81" t="inlineStr">
         <is>
           <t>EL</t>
         </is>
@@ -11984,6 +12022,9 @@
       </c>
       <c r="CM30" s="17" t="n"/>
       <c r="CN30" s="23" t="n"/>
+      <c r="CO30" s="65" t="n"/>
+      <c r="CP30" s="82" t="n"/>
+      <c r="CQ30" s="83" t="n"/>
       <c r="CR30" s="5" t="n"/>
       <c r="CS30" s="10" t="inlineStr">
         <is>
@@ -12218,6 +12259,9 @@
       </c>
       <c r="CM31" s="18" t="n"/>
       <c r="CN31" s="17" t="n"/>
+      <c r="CO31" s="84" t="n"/>
+      <c r="CP31" s="85" t="n"/>
+      <c r="CQ31" s="86" t="n"/>
       <c r="CR31" s="5" t="n"/>
       <c r="CS31" s="10" t="inlineStr">
         <is>
@@ -12452,6 +12496,9 @@
       </c>
       <c r="CM32" s="21" t="n"/>
       <c r="CN32" s="17" t="n"/>
+      <c r="CO32" s="68" t="n"/>
+      <c r="CP32" s="87" t="n"/>
+      <c r="CQ32" s="88" t="n"/>
       <c r="CR32" s="5" t="n"/>
       <c r="CS32" s="11" t="inlineStr">
         <is>
@@ -12686,6 +12733,9 @@
       </c>
       <c r="CM33" s="17" t="n"/>
       <c r="CN33" s="16" t="n"/>
+      <c r="CO33" s="65" t="n"/>
+      <c r="CP33" s="82" t="n"/>
+      <c r="CQ33" s="83" t="n"/>
       <c r="CR33" s="5" t="n"/>
       <c r="CS33" s="10" t="inlineStr">
         <is>
@@ -12920,6 +12970,9 @@
       </c>
       <c r="CM34" s="18" t="n"/>
       <c r="CN34" s="13" t="n"/>
+      <c r="CO34" s="84" t="n"/>
+      <c r="CP34" s="85" t="n"/>
+      <c r="CQ34" s="86" t="n"/>
       <c r="CR34" s="5" t="n"/>
       <c r="CS34" s="10" t="inlineStr">
         <is>
@@ -13154,6 +13207,9 @@
       </c>
       <c r="CM35" s="21" t="n"/>
       <c r="CN35" s="13" t="n"/>
+      <c r="CO35" s="68" t="n"/>
+      <c r="CP35" s="87" t="n"/>
+      <c r="CQ35" s="88" t="n"/>
       <c r="CR35" s="5" t="n"/>
       <c r="CS35" s="11" t="inlineStr">
         <is>
@@ -13388,6 +13444,9 @@
       </c>
       <c r="CM36" s="17" t="n"/>
       <c r="CN36" s="23" t="n"/>
+      <c r="CO36" s="65" t="n"/>
+      <c r="CP36" s="82" t="n"/>
+      <c r="CQ36" s="83" t="n"/>
       <c r="CR36" s="5" t="n"/>
       <c r="CS36" s="10" t="inlineStr">
         <is>
@@ -13622,6 +13681,9 @@
       </c>
       <c r="CM37" s="18" t="n"/>
       <c r="CN37" s="17" t="n"/>
+      <c r="CO37" s="84" t="n"/>
+      <c r="CP37" s="85" t="n"/>
+      <c r="CQ37" s="86" t="n"/>
       <c r="CR37" s="5" t="n"/>
       <c r="CS37" s="10" t="inlineStr">
         <is>
@@ -13856,6 +13918,9 @@
       </c>
       <c r="CM38" s="21" t="n"/>
       <c r="CN38" s="17" t="n"/>
+      <c r="CO38" s="68" t="n"/>
+      <c r="CP38" s="87" t="n"/>
+      <c r="CQ38" s="88" t="n"/>
       <c r="CR38" s="5" t="n"/>
       <c r="CS38" s="11" t="inlineStr">
         <is>
@@ -14090,6 +14155,9 @@
       </c>
       <c r="CM39" s="17" t="n"/>
       <c r="CN39" s="16" t="n"/>
+      <c r="CO39" s="65" t="n"/>
+      <c r="CP39" s="82" t="n"/>
+      <c r="CQ39" s="83" t="n"/>
       <c r="CR39" s="5" t="n"/>
       <c r="CS39" s="10" t="inlineStr">
         <is>
@@ -14324,6 +14392,9 @@
       </c>
       <c r="CM40" s="18" t="n"/>
       <c r="CN40" s="13" t="n"/>
+      <c r="CO40" s="84" t="n"/>
+      <c r="CP40" s="85" t="n"/>
+      <c r="CQ40" s="86" t="n"/>
       <c r="CR40" s="5" t="n"/>
       <c r="CS40" s="10" t="inlineStr">
         <is>
@@ -14558,6 +14629,9 @@
       </c>
       <c r="CM41" s="21" t="n"/>
       <c r="CN41" s="22" t="n"/>
+      <c r="CO41" s="68" t="n"/>
+      <c r="CP41" s="87" t="n"/>
+      <c r="CQ41" s="88" t="n"/>
       <c r="CR41" s="5" t="n"/>
       <c r="CS41" s="11" t="inlineStr">
         <is>
@@ -21540,7 +21614,7 @@
       <c r="CN221" s="7" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="38">
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="AZ1:BA1"/>
     <mergeCell ref="J1:K1"/>
@@ -21562,6 +21636,7 @@
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="CJ1:CK1"/>
     <mergeCell ref="CS2:CT2"/>
+    <mergeCell ref="CV1:CW1"/>
     <mergeCell ref="BU1:BV1"/>
     <mergeCell ref="AK1:AL1"/>
     <mergeCell ref="CM1:CN1"/>
@@ -21569,13 +21644,13 @@
     <mergeCell ref="AQ1:AR1"/>
     <mergeCell ref="AW1:AX1"/>
     <mergeCell ref="CG1:CH1"/>
-    <mergeCell ref="CP2:CQ2"/>
     <mergeCell ref="CS1:CT1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="BC1:BD1"/>
     <mergeCell ref="BI1:BJ1"/>
     <mergeCell ref="AT1:AU1"/>
+    <mergeCell ref="CV2:CW2"/>
     <mergeCell ref="BO1:BP1"/>
     <mergeCell ref="BF1:BG1"/>
   </mergeCells>
